--- a/evaluation/GSM8k/evaluation-MR-gen-100@1.xlsx
+++ b/evaluation/GSM8k/evaluation-MR-gen-100@1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9278350515463918</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -587,11 +587,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
         <v>100</v>
@@ -615,7 +615,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-70B-Instruct-Turbo</t>
+          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,55 +624,55 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9595959595959596</v>
+        <v>0.8020833333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
+          <t>Mistral-7B-Instruct-v0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7471264367816092</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
+          <t>Mistral-7B-Instruct-v0.2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -690,31 +690,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mistral-7B-Instruct-v0.2</t>
+          <t>Mistral-7B-Instruct-v0.3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -723,25 +723,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -785,61 +785,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="D11" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mixtral-8x7B-Instruct-v0.1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6413043478260869</v>
-      </c>
-      <c r="D12" t="n">
-        <v>92</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
